--- a/_resource/excel/table/K-框架-屏蔽字符-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/table/K-框架-屏蔽字符-(框架维护,请勿修改).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="13065"/>
+    <workbookView xWindow="2070" yWindow="0" windowWidth="26310" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="framefilter" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>屏蔽字</t>
   </si>
@@ -111,14 +111,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>key=Str</t>
+    <t>key=Int</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp=Filter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -680,11 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -698,15 +702,18 @@
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -714,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -722,17 +729,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -740,36 +747,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="18" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="19" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
